--- a/JPADSandBox_v2/out/IRON_CANARD cut/PERFORMANCE/XCG_-0.35/Performance_-0.35.xlsx
+++ b/JPADSandBox_v2/out/IRON_CANARD cut/PERFORMANCE/XCG_-0.35/Performance_-0.35.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JPAD\jpad\JPADSandBox_v2\out\IRON_CANARD cut\PERFORMANCE\XCG_-0.35\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FB99D-81D5-4D3E-9FA2-DBD18D5F23C9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22980" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="MISSION PROFILE" sheetId="1" r:id="rId1"/>
+    <sheet name="MISSION PROFILE" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -1009,29 +1001,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <name val="Calibri"/>
+      <sz val="20.0"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="true"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="22"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1053,332 +1050,24 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C328"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="36.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="35"/>
   <cols>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,3454 +1078,3454 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>1599.9999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>1699.9999999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>266.19609852180093</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>321.3217747473617</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>54943.926722045682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="n">
+        <v>54943.92672204568</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>48244.559358630271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="n">
+        <v>48244.55935863027</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>6803.926722045695</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>5353.0013165993041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="n">
+        <v>5353.001316599304</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>6463.7303859434105</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="n">
+        <v>130.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15">
-        <v>0.80390870063069975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="n">
+        <v>0.8039087006306997</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16">
-        <v>94.257111305043054</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="n">
+        <v>94.25711130504305</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>1409.0637135949387</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>95.44884708572306</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
-        <v>25.949153915826741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="n">
+        <v>25.94915391582674</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20">
-        <v>32.069314360303451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="n">
+        <v>32.06931436030345</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>38.394822621879825</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>-1.1368683772161603E-13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>3.5867091019894133</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
       </c>
-      <c r="C24">
-        <v>0.42641931366404151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="n">
+        <v>0.4264193136640415</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>34.999999999999986</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>29999.999999999993</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>29999.999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
         <v>32</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>14999.999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>14999.999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C33">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="n">
+        <v>1500.0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
       </c>
-      <c r="C34">
-        <v>49.999999999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="n">
+        <v>49.99999999999999</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37">
-        <v>0.60225492810343417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="n">
+        <v>0.6022549281034342</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>22.217276106560142</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>44</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>224.11351296666123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>18.999999999999957</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>7.2117075599558405</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
-        <v>7.9473019989383999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="n">
+        <v>7.9473019989384</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
       </c>
-      <c r="C43">
-        <v>8.9999999999999716</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="n">
+        <v>8.999999999999972</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44">
-        <v>29.999999999999972</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="n">
+        <v>29.99999999999997</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45">
-        <v>0.96666666666661172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="n">
+        <v>0.9666666666666117</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>0.2630545204761745</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>29.667999447124117</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
-        <v>762.88313374196855</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="n">
+        <v>762.8831337419685</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>4371.8231763493695</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>188.62700706084115</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>56</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
-      <c r="C52">
-        <v>289.84615732986322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="n">
+        <v>289.8461573298632</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>57</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>156.34979171259283</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>58</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
-        <v>72.544882107988542</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="n">
+        <v>72.54488210798854</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
-        <v>581.26085757715146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="n">
+        <v>581.2608575771515</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>60</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>10.72738061650989</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>61</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
-      <c r="C57">
-        <v>-4.5474735088646412E-13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="n">
+        <v>-4.547473508864641E-13</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
-        <v>54678.621745126598</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="n">
+        <v>54678.6217451266</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
-        <v>53915.738611384622</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="n">
+        <v>53915.73861138462</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
-        <v>49543.915435035247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="n">
+        <v>49543.91543503525</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
-        <v>49355.288427974403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C62" t="n">
+        <v>49355.2884279744</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
-        <v>54388.775587796728</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="n">
+        <v>54388.77558779673</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>48909.09247893194</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>68</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
-        <v>48836.547596823948</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C65" t="n">
+        <v>48836.54759682395</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
-        <v>48255.286739246789</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="n">
+        <v>48255.28673924679</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>70</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
-        <v>48244.559358630271</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="n">
+        <v>48244.55935863027</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
-        <v>48244.559358630271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="n">
+        <v>48244.55935863027</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
       </c>
-      <c r="C71">
-        <v>5.2689705654972033E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C71" t="n">
+        <v>5.268970565497203E-4</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
         <v>74</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>141.69033364624323</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
-      <c r="C73">
-        <v>5.2662728904654299E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C73" t="n">
+        <v>5.26627289046543E-4</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>141.61778921454265</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
-      <c r="C75">
-        <v>7.9654444291852399E-7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C75" t="n">
+        <v>7.96544442918524E-7</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>79</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>0.21422824221679163</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>80</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
-      <c r="C77">
-        <v>1.4484999999999999</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C77" t="n">
+        <v>1.4485</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>81</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>2.3811479736651755</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>82</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>0.11289426732847506</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>0.16883762844270048</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>84</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>12.830589491187105</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>85</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>14.103183014521441</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" t="s">
         <v>87</v>
       </c>
-      <c r="C83">
-        <v>36352.600962813813</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="n">
+        <v>36352.60096281381</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
       </c>
-      <c r="C84">
-        <v>25414.158347145611</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="n">
+        <v>25414.15834714561</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>89</v>
       </c>
       <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="C85">
-        <v>9.3023756189225216E-8</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="n">
+        <v>9.302375618922522E-8</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>90</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-      <c r="C86">
-        <v>8466.9215906128247</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="n">
+        <v>8466.921590612825</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>91</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>1347.7603880398594</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>94</v>
       </c>
       <c r="B89" t="s">
         <v>95</v>
       </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
-      <c r="C90">
-        <v>5.3896554602424374</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" t="n">
+        <v>5.389655460242437</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
         <v>98</v>
       </c>
-      <c r="C91">
-        <v>6485.6113337654424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C91" t="n">
+        <v>6485.611333765442</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
       </c>
-      <c r="C92">
-        <v>6550.0926880019942</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="n">
+        <v>6550.092688001994</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
         <v>100</v>
       </c>
       <c r="B93" t="s">
         <v>101</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>0.17840845392052615</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>102</v>
       </c>
       <c r="B94" t="s">
         <v>101</v>
       </c>
-      <c r="C94">
-        <v>0.25773400002198649</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="n">
+        <v>0.2577340000219865</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
         <v>74</v>
       </c>
-      <c r="C97">
-        <v>190.09732846487401</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C97" t="n">
+        <v>190.097328464874</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" t="s">
         <v>105</v>
       </c>
       <c r="B98" t="s">
         <v>74</v>
       </c>
-      <c r="C98">
-        <v>310.38177646695777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C98" t="n">
+        <v>310.3817764669578</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" t="s">
         <v>106</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>189.99999999999994</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>189.99999999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>108</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
-      <c r="C101">
-        <v>0.28738245681974872</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C101" t="n">
+        <v>0.2873824568197487</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" t="s">
         <v>109</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
-      <c r="C102">
-        <v>0.52657756296813796</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C102" t="n">
+        <v>0.526577562968138</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
         <v>110</v>
       </c>
       <c r="B103" t="s">
         <v>20</v>
       </c>
-      <c r="C103">
-        <v>0.92839739446784431</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C103" t="n">
+        <v>0.9283973944678443</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
         <v>111</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
-      <c r="C104">
-        <v>0.91638242701074557</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C104" t="n">
+        <v>0.9163824270107456</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
         <v>112</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
-      <c r="C105">
-        <v>5.0336730158677338E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C105" t="n">
+        <v>0.05033673015867734</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="s">
         <v>113</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
       </c>
-      <c r="C106">
-        <v>4.9620052544201529E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C106" t="n">
+        <v>0.04962005254420153</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="s">
         <v>114</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>18.443736642035375</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>115</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>18.467985824771798</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>116</v>
       </c>
       <c r="B109" t="s">
         <v>87</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>20463.639022716823</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>117</v>
       </c>
       <c r="B110" t="s">
         <v>87</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>10857.527625166813</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>118</v>
       </c>
       <c r="B111" t="s">
         <v>87</v>
       </c>
-      <c r="C111">
-        <v>6537.1688658653311</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C111" t="n">
+        <v>6537.168865865331</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
         <v>119</v>
       </c>
       <c r="B112" t="s">
         <v>87</v>
       </c>
-      <c r="C112">
-        <v>7607.8704147223798</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" t="n">
+        <v>7607.87041472238</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
         <v>120</v>
       </c>
       <c r="B113" t="s">
         <v>92</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>2222.8996033782123</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>121</v>
       </c>
       <c r="B114" t="s">
         <v>92</v>
       </c>
-      <c r="C114">
-        <v>738.15139962631622</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C114" t="n">
+        <v>738.1513996263162</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
         <v>122</v>
       </c>
       <c r="B115" t="s">
         <v>95</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>6.631028828160404</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>123</v>
       </c>
       <c r="B116" t="s">
         <v>95</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>1.3456710905671325</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>124</v>
       </c>
       <c r="B117" t="s">
         <v>98</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>6071.3713082178065</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>125</v>
       </c>
       <c r="B118" t="s">
         <v>98</v>
       </c>
-      <c r="C118">
-        <v>3460.8125451073502</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C118" t="n">
+        <v>3460.81254510735</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
         <v>126</v>
       </c>
       <c r="B119" t="s">
         <v>101</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>0.29669069618936966</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>127</v>
       </c>
       <c r="B120" t="s">
         <v>101</v>
       </c>
-      <c r="C120">
-        <v>0.31874775405456812</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" t="n">
+        <v>0.3187477540545681</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>129</v>
       </c>
       <c r="B123" t="s">
         <v>74</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>377.23661414505136</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>130</v>
       </c>
       <c r="B124" t="s">
         <v>74</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>377.23661414505136</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>131</v>
       </c>
       <c r="B125" t="s">
         <v>74</v>
       </c>
-      <c r="C125">
-        <v>377.23662026295671</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C125" t="n">
+        <v>377.2366202629567</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126" t="s">
         <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>74</v>
       </c>
-      <c r="C126">
-        <v>377.23662026295671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="n">
+        <v>377.2366202629567</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127" t="s">
         <v>133</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="n">
         <v>0.6399999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>134</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="n">
         <v>0.6399999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>135</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
-      <c r="C129">
-        <v>0.62035673969938954</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C129" t="n">
+        <v>0.6203567396993895</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130" t="s">
         <v>136</v>
       </c>
       <c r="B130" t="s">
         <v>20</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>0.5437656125094058</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>137</v>
       </c>
       <c r="B131" t="s">
         <v>20</v>
       </c>
-      <c r="C131">
-        <v>3.0650589819896761E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C131" t="n">
+        <v>0.03065058981989676</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132" t="s">
         <v>138</v>
       </c>
       <c r="B132" t="s">
         <v>20</v>
       </c>
-      <c r="C132">
-        <v>2.8283232468002625E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C132" t="n">
+        <v>0.028283232468002625</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133" t="s">
         <v>139</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>20.239634647966426</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>140</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>19.225723690691243</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>141</v>
       </c>
       <c r="B135" t="s">
         <v>87</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>5872.8262186435695</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>142</v>
       </c>
       <c r="B136" t="s">
         <v>87</v>
       </c>
-      <c r="C136">
-        <v>5419.2271718781676</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" t="n">
+        <v>5419.227171878168</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137" t="s">
         <v>143</v>
       </c>
       <c r="B137" t="s">
         <v>87</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>5872.8262186435695</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>144</v>
       </c>
       <c r="B138" t="s">
         <v>87</v>
       </c>
-      <c r="C138">
-        <v>5419.2271718781676</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C138" t="n">
+        <v>5419.227171878168</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="s">
         <v>145</v>
       </c>
       <c r="B139" t="s">
         <v>92</v>
       </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C139" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="s">
         <v>146</v>
       </c>
       <c r="B140" t="s">
         <v>92</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C140" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141" t="s">
         <v>147</v>
       </c>
       <c r="B141" t="s">
         <v>95</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C141" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142" t="s">
         <v>148</v>
       </c>
       <c r="B142" t="s">
         <v>95</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C142" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143" t="s">
         <v>149</v>
       </c>
       <c r="B143" t="s">
         <v>98</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="n">
         <v>2638.5723390788244</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>150</v>
       </c>
       <c r="B144" t="s">
         <v>98</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="n">
         <v>2498.605183384549</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>151</v>
       </c>
       <c r="B145" t="s">
         <v>101</v>
       </c>
-      <c r="C145">
-        <v>0.44928493383688922</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C145" t="n">
+        <v>0.4492849338368892</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146" t="s">
         <v>152</v>
       </c>
       <c r="B146" t="s">
         <v>101</v>
       </c>
-      <c r="C146">
-        <v>0.46106300845819598</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C146" t="n">
+        <v>0.461063008458196</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>154</v>
       </c>
       <c r="B149" t="s">
         <v>74</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>359.38939993419694</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>155</v>
       </c>
       <c r="B150" t="s">
         <v>74</v>
       </c>
-      <c r="C150">
-        <v>250.55025319218299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C150" t="n">
+        <v>250.550253192183</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151" t="s">
         <v>156</v>
       </c>
       <c r="B151" t="s">
         <v>74</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>157</v>
       </c>
       <c r="B152" t="s">
         <v>74</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>20</v>
       </c>
-      <c r="C153">
-        <v>0.60972134552518575</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C153" t="n">
+        <v>0.6097213455251858</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154" t="s">
         <v>159</v>
       </c>
       <c r="B154" t="s">
         <v>20</v>
       </c>
-      <c r="C154">
-        <v>0.38074137424030913</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C154" t="n">
+        <v>0.3807413742403091</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155" t="s">
         <v>160</v>
       </c>
       <c r="B155" t="s">
         <v>20</v>
       </c>
-      <c r="C155">
-        <v>0.62754410046885678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C155" t="n">
+        <v>0.6275441004688568</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156" t="s">
         <v>161</v>
       </c>
       <c r="B156" t="s">
         <v>20</v>
       </c>
-      <c r="C156">
-        <v>0.62290731604467076</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C156" t="n">
+        <v>0.6229073160446708</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157" t="s">
         <v>162</v>
       </c>
       <c r="B157" t="s">
         <v>20</v>
       </c>
-      <c r="C157">
-        <v>3.5409399864590525E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C157" t="n">
+        <v>0.035409399864590525</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158" t="s">
         <v>163</v>
       </c>
       <c r="B158" t="s">
         <v>20</v>
       </c>
-      <c r="C158">
-        <v>3.5219325457490291E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C158" t="n">
+        <v>0.03521932545749029</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159" t="s">
         <v>164</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
       </c>
-      <c r="C159">
-        <v>17.722528562151719</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C159" t="n">
+        <v>17.72252856215172</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160" t="s">
         <v>165</v>
       </c>
       <c r="B160" t="s">
         <v>20</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>17.686520339423296</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>166</v>
       </c>
       <c r="B161" t="s">
         <v>87</v>
       </c>
-      <c r="C161">
+      <c r="C161" t="n">
         <v>1791.1938794976384</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>167</v>
       </c>
       <c r="B162" t="s">
         <v>87</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>-2504.381967244894</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>168</v>
       </c>
       <c r="B163" t="s">
         <v>87</v>
       </c>
-      <c r="C163">
-        <v>6157.8588618443118</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C163" t="n">
+        <v>6157.858861844312</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" t="s">
         <v>169</v>
       </c>
       <c r="B164" t="s">
         <v>87</v>
       </c>
-      <c r="C164">
-        <v>6124.8040409027562</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C164" t="n">
+        <v>6124.804040902756</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165" t="s">
         <v>170</v>
       </c>
       <c r="B165" t="s">
         <v>92</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>-1455.007798864144</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>171</v>
       </c>
       <c r="B166" t="s">
         <v>92</v>
       </c>
-      <c r="C166">
-        <v>-2017.6442663945729</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C166" t="n">
+        <v>-2017.644266394573</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" t="s">
         <v>172</v>
       </c>
       <c r="B167" t="s">
         <v>95</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>2.3620924267584913</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>173</v>
       </c>
       <c r="B168" t="s">
         <v>95</v>
       </c>
-      <c r="C168">
-        <v>3.3892029464547662</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C168" t="n">
+        <v>3.389202946454766</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" t="s">
         <v>174</v>
       </c>
       <c r="B169" t="s">
         <v>98</v>
       </c>
-      <c r="C169">
+      <c r="C169" t="n">
         <v>1566.2240408706984</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>175</v>
       </c>
       <c r="B170" t="s">
         <v>98</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>1101.3215058766323</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>176</v>
       </c>
       <c r="B171" t="s">
         <v>101</v>
       </c>
-      <c r="C171">
-        <v>0.87440229603171971</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C171" t="n">
+        <v>0.8744022960317197</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" t="s">
         <v>177</v>
       </c>
       <c r="B172" t="s">
         <v>101</v>
       </c>
-      <c r="C172">
+      <c r="C172" t="n">
         <v>-0.4397578006394175</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>179</v>
       </c>
       <c r="B175" t="s">
         <v>74</v>
       </c>
-      <c r="C175">
-        <v>190.13906432189091</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C175" t="n">
+        <v>190.1390643218909</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" t="s">
         <v>180</v>
       </c>
       <c r="B176" t="s">
         <v>74</v>
       </c>
-      <c r="C176">
-        <v>310.38177646695777</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C176" t="n">
+        <v>310.3817764669578</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" t="s">
         <v>181</v>
       </c>
       <c r="B177" t="s">
         <v>74</v>
       </c>
-      <c r="C177">
+      <c r="C177" t="n">
         <v>189.99999999999994</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>182</v>
       </c>
       <c r="B178" t="s">
         <v>74</v>
       </c>
-      <c r="C178">
+      <c r="C178" t="n">
         <v>189.99999999999994</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>183</v>
       </c>
       <c r="B179" t="s">
         <v>20</v>
       </c>
-      <c r="C179">
+      <c r="C179" t="n">
         <v>0.28893927555185533</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" t="s">
         <v>184</v>
       </c>
       <c r="B180" t="s">
         <v>20</v>
       </c>
-      <c r="C180">
+      <c r="C180" t="n">
         <v>0.49544868017497673</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>185</v>
       </c>
       <c r="B181" t="s">
         <v>20</v>
       </c>
-      <c r="C181">
-        <v>0.92798986949678341</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C181" t="n">
+        <v>0.9279898694967834</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" t="s">
         <v>186</v>
       </c>
       <c r="B182" t="s">
         <v>20</v>
       </c>
-      <c r="C182">
-        <v>0.92442243135223889</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C182" t="n">
+        <v>0.9244224313522389</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" t="s">
         <v>187</v>
       </c>
       <c r="B183" t="s">
         <v>20</v>
       </c>
-      <c r="C183">
-        <v>5.0312421809516839E-2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C183" t="n">
+        <v>0.05031242180951684</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" t="s">
         <v>188</v>
       </c>
       <c r="B184" t="s">
         <v>20</v>
       </c>
-      <c r="C184">
-        <v>5.0099628635640062E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C184" t="n">
+        <v>0.05009962863564006</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185" t="s">
         <v>189</v>
       </c>
       <c r="B185" t="s">
         <v>20</v>
       </c>
-      <c r="C185">
-        <v>18.444547809885979</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C185" t="n">
+        <v>18.44454780988598</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186" t="s">
         <v>190</v>
       </c>
       <c r="B186" t="s">
         <v>20</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>18.45168230837184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>191</v>
       </c>
       <c r="B187" t="s">
         <v>87</v>
       </c>
-      <c r="C187">
+      <c r="C187" t="n">
         <v>20069.5938744796</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>192</v>
       </c>
       <c r="B188" t="s">
         <v>87</v>
       </c>
-      <c r="C188">
+      <c r="C188" t="n">
         <v>17670.231107350155</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>193</v>
       </c>
       <c r="B189" t="s">
         <v>87</v>
       </c>
-      <c r="C189">
-        <v>6566.2585897322424</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C189" t="n">
+        <v>6566.258589732242</v>
+      </c>
+    </row>
+    <row r="190">
       <c r="A190" t="s">
         <v>194</v>
       </c>
       <c r="B190" t="s">
         <v>87</v>
       </c>
-      <c r="C190">
-        <v>7542.3018290170949</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C190" t="n">
+        <v>7542.301829017095</v>
+      </c>
+    </row>
+    <row r="191">
       <c r="A191" t="s">
         <v>195</v>
       </c>
       <c r="B191" t="s">
         <v>92</v>
       </c>
-      <c r="C191">
-        <v>2155.4670160300302</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C191" t="n">
+        <v>2155.46701603003</v>
+      </c>
+    </row>
+    <row r="192">
       <c r="A192" t="s">
         <v>196</v>
       </c>
       <c r="B192" t="s">
         <v>92</v>
       </c>
-      <c r="C192">
+      <c r="C192" t="n">
         <v>1536.8040477690704</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>197</v>
       </c>
       <c r="B193" t="s">
         <v>95</v>
       </c>
-      <c r="C193">
+      <c r="C193" t="n">
         <v>2.8025473027356416</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>198</v>
       </c>
       <c r="B194" t="s">
         <v>95</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C194" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
       <c r="A195" t="s">
         <v>199</v>
       </c>
       <c r="B195" t="s">
         <v>98</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>5905.080175026942</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>200</v>
       </c>
       <c r="B196" t="s">
         <v>98</v>
       </c>
-      <c r="C196">
+      <c r="C196" t="n">
         <v>4918.6442030521075</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>201</v>
       </c>
       <c r="B197" t="s">
         <v>101</v>
       </c>
-      <c r="C197">
-        <v>0.29423017784808358</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C197" t="n">
+        <v>0.2942301778480836</v>
+      </c>
+    </row>
+    <row r="198">
       <c r="A198" t="s">
         <v>202</v>
       </c>
       <c r="B198" t="s">
         <v>101</v>
       </c>
-      <c r="C198">
+      <c r="C198" t="n">
         <v>0.2783576611517059</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>204</v>
       </c>
       <c r="B201" t="s">
         <v>74</v>
       </c>
-      <c r="C201">
+      <c r="C201" t="n">
         <v>242.35667443685708</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>205</v>
       </c>
       <c r="B202" t="s">
         <v>74</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>241.7763817251537</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>206</v>
       </c>
       <c r="B203" t="s">
         <v>74</v>
       </c>
-      <c r="C203">
+      <c r="C203" t="n">
         <v>192.28200246433528</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>207</v>
       </c>
       <c r="B204" t="s">
         <v>74</v>
       </c>
-      <c r="C204">
+      <c r="C204" t="n">
         <v>191.82160728487077</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>208</v>
       </c>
       <c r="B205" t="s">
         <v>20</v>
       </c>
-      <c r="C205">
+      <c r="C205" t="n">
         <v>0.38686322324764516</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>209</v>
       </c>
       <c r="B206" t="s">
         <v>20</v>
       </c>
-      <c r="C206">
-        <v>0.38593692769833399</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C206" t="n">
+        <v>0.385936927698334</v>
+      </c>
+    </row>
+    <row r="207">
       <c r="A207" t="s">
         <v>210</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
       </c>
-      <c r="C207">
-        <v>0.81426701122448986</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C207" t="n">
+        <v>0.8142670112244899</v>
+      </c>
+    </row>
+    <row r="208">
       <c r="A208" t="s">
         <v>211</v>
       </c>
       <c r="B208" t="s">
         <v>20</v>
       </c>
-      <c r="C208">
-        <v>0.81426701122448997</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C208" t="n">
+        <v>0.81426701122449</v>
+      </c>
+    </row>
+    <row r="209">
       <c r="A209" t="s">
         <v>212</v>
       </c>
       <c r="B209" t="s">
         <v>20</v>
       </c>
-      <c r="C209">
-        <v>3.8425568382750595E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C209" t="n">
+        <v>0.038425568382750595</v>
+      </c>
+    </row>
+    <row r="210">
       <c r="A210" t="s">
         <v>213</v>
       </c>
       <c r="B210" t="s">
         <v>20</v>
       </c>
-      <c r="C210">
-        <v>3.8425568382750602E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C210" t="n">
+        <v>0.0384255683827506</v>
+      </c>
+    </row>
+    <row r="211">
       <c r="A211" t="s">
         <v>214</v>
       </c>
       <c r="B211" t="s">
         <v>20</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>21.190760358147827</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>215</v>
       </c>
       <c r="B212" t="s">
         <v>20</v>
       </c>
-      <c r="C212">
+      <c r="C212" t="n">
         <v>21.190760358147827</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" t="s">
         <v>216</v>
       </c>
       <c r="B213" t="s">
         <v>87</v>
       </c>
-      <c r="C213">
-        <v>5104.6202284707761</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C213" t="n">
+        <v>5104.620228470776</v>
+      </c>
+    </row>
+    <row r="214">
       <c r="A214" t="s">
         <v>217</v>
       </c>
       <c r="B214" t="s">
         <v>87</v>
       </c>
-      <c r="C214">
+      <c r="C214" t="n">
         <v>5080.2047454295425</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>218</v>
       </c>
       <c r="B215" t="s">
         <v>87</v>
       </c>
-      <c r="C215">
-        <v>5104.6202284707761</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C215" t="n">
+        <v>5104.620228470776</v>
+      </c>
+    </row>
+    <row r="216">
       <c r="A216" t="s">
         <v>219</v>
       </c>
       <c r="B216" t="s">
         <v>87</v>
       </c>
-      <c r="C216">
+      <c r="C216" t="n">
         <v>5080.2047454295425</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217">
       <c r="A217" t="s">
         <v>220</v>
       </c>
       <c r="B217" t="s">
         <v>92</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C217" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="218">
       <c r="A218" t="s">
         <v>221</v>
       </c>
       <c r="B218" t="s">
         <v>92</v>
       </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C218" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="219">
       <c r="A219" t="s">
         <v>222</v>
       </c>
       <c r="B219" t="s">
         <v>95</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C219" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="220">
       <c r="A220" t="s">
         <v>223</v>
       </c>
       <c r="B220" t="s">
         <v>95</v>
       </c>
-      <c r="C220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C220" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="221">
       <c r="A221" t="s">
         <v>224</v>
       </c>
       <c r="B221" t="s">
         <v>98</v>
       </c>
-      <c r="C221">
-        <v>2607.4805996630098</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C221" t="n">
+        <v>2607.48059966301</v>
+      </c>
+    </row>
+    <row r="222">
       <c r="A222" t="s">
         <v>225</v>
       </c>
       <c r="B222" t="s">
         <v>98</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>2595.0089767974446</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223">
       <c r="A223" t="s">
         <v>226</v>
       </c>
       <c r="B223" t="s">
         <v>101</v>
       </c>
-      <c r="C223">
+      <c r="C223" t="n">
         <v>0.510807951024429</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>227</v>
       </c>
       <c r="B224" t="s">
         <v>101</v>
       </c>
-      <c r="C224">
-        <v>0.51080795102442877</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C224" t="n">
+        <v>0.5108079510244288</v>
+      </c>
+    </row>
+    <row r="225">
       <c r="A225" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226">
       <c r="A226" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>229</v>
       </c>
       <c r="B227" t="s">
         <v>74</v>
       </c>
-      <c r="C227">
-        <v>277.29305872234761</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C227" t="n">
+        <v>277.2930587223476</v>
+      </c>
+    </row>
+    <row r="228">
       <c r="A228" t="s">
         <v>230</v>
       </c>
       <c r="B228" t="s">
         <v>74</v>
       </c>
-      <c r="C228">
-        <v>236.54969522904099</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C228" t="n">
+        <v>236.549695229041</v>
+      </c>
+    </row>
+    <row r="229">
       <c r="A229" t="s">
         <v>231</v>
       </c>
       <c r="B229" t="s">
         <v>74</v>
       </c>
-      <c r="C229">
+      <c r="C229" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230">
       <c r="A230" t="s">
         <v>232</v>
       </c>
       <c r="B230" t="s">
         <v>74</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231">
       <c r="A231" t="s">
         <v>233</v>
       </c>
       <c r="B231" t="s">
         <v>20</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>0.44263062583603374</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232">
       <c r="A232" t="s">
         <v>234</v>
       </c>
       <c r="B232" t="s">
         <v>20</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>0.35946583525720144</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>235</v>
       </c>
       <c r="B233" t="s">
         <v>20</v>
       </c>
-      <c r="C233">
-        <v>0.61914478148897945</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C233" t="n">
+        <v>0.6191447814889794</v>
+      </c>
+    </row>
+    <row r="234">
       <c r="A234" t="s">
         <v>236</v>
       </c>
       <c r="B234" t="s">
         <v>20</v>
       </c>
-      <c r="C234">
+      <c r="C234" t="n">
         <v>0.6175485320605214</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235">
       <c r="A235" t="s">
         <v>237</v>
       </c>
       <c r="B235" t="s">
         <v>20</v>
       </c>
-      <c r="C235">
-        <v>3.5065088930741971E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C235" t="n">
+        <v>0.03506508893074197</v>
+      </c>
+    </row>
+    <row r="236">
       <c r="A236" t="s">
         <v>238</v>
       </c>
       <c r="B236" t="s">
         <v>20</v>
       </c>
-      <c r="C236">
-        <v>3.4999654324354916E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C236" t="n">
+        <v>0.034999654324354916</v>
+      </c>
+    </row>
+    <row r="237">
       <c r="A237" t="s">
         <v>239</v>
       </c>
       <c r="B237" t="s">
         <v>20</v>
       </c>
-      <c r="C237">
+      <c r="C237" t="n">
         <v>17.657014437119194</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238">
       <c r="A238" t="s">
         <v>240</v>
       </c>
       <c r="B238" t="s">
         <v>20</v>
       </c>
-      <c r="C238">
+      <c r="C238" t="n">
         <v>17.644418037317386</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239">
       <c r="A239" t="s">
         <v>241</v>
       </c>
       <c r="B239" t="s">
         <v>87</v>
       </c>
-      <c r="C239">
+      <c r="C239" t="n">
         <v>-2249.1304400983818</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240">
       <c r="A240" t="s">
         <v>242</v>
       </c>
       <c r="B240" t="s">
         <v>87</v>
       </c>
-      <c r="C240">
+      <c r="C240" t="n">
         <v>-2703.322714261802</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241">
       <c r="A241" t="s">
         <v>243</v>
       </c>
       <c r="B241" t="s">
         <v>87</v>
       </c>
-      <c r="C241">
-        <v>6097.9815935670413</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C241" t="n">
+        <v>6097.981593567041</v>
+      </c>
+    </row>
+    <row r="242">
       <c r="A242" t="s">
         <v>244</v>
       </c>
       <c r="B242" t="s">
         <v>87</v>
       </c>
-      <c r="C242">
-        <v>6086.6022120369198</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C242" t="n">
+        <v>6086.60221203692</v>
+      </c>
+    </row>
+    <row r="243">
       <c r="A243" t="s">
         <v>245</v>
       </c>
       <c r="B243" t="s">
         <v>92</v>
       </c>
-      <c r="C243">
-        <v>-2173.8328449032019</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C243" t="n">
+        <v>-2173.832844903202</v>
+      </c>
+    </row>
+    <row r="244">
       <c r="A244" t="s">
         <v>246</v>
       </c>
       <c r="B244" t="s">
         <v>92</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>-1956.8024293566355</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245">
       <c r="A245" t="s">
         <v>247</v>
       </c>
       <c r="B245" t="s">
         <v>95</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>3.0620118887812415</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246">
       <c r="A246" t="s">
         <v>248</v>
       </c>
       <c r="B246" t="s">
         <v>95</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>3.5900536935990557</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247">
       <c r="A247" t="s">
         <v>249</v>
       </c>
       <c r="B247" t="s">
         <v>98</v>
       </c>
-      <c r="C247">
-        <v>913.84739344766194</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C247" t="n">
+        <v>913.847393447662</v>
+      </c>
+    </row>
+    <row r="248">
       <c r="A248" t="s">
         <v>250</v>
       </c>
       <c r="B248" t="s">
         <v>98</v>
       </c>
-      <c r="C248">
+      <c r="C248" t="n">
         <v>1226.544833785536</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249">
       <c r="A249" t="s">
         <v>251</v>
       </c>
       <c r="B249" t="s">
         <v>101</v>
       </c>
-      <c r="C249">
-        <v>-0.40631142469784381</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C249" t="n">
+        <v>-0.4063114246978438</v>
+      </c>
+    </row>
+    <row r="250">
       <c r="A250" t="s">
         <v>252</v>
       </c>
       <c r="B250" t="s">
         <v>101</v>
       </c>
-      <c r="C250">
+      <c r="C250" t="n">
         <v>-0.45371750376479536</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251">
       <c r="A251" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252">
       <c r="A252" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253">
       <c r="A253" t="s">
         <v>254</v>
       </c>
       <c r="B253" t="s">
         <v>74</v>
       </c>
-      <c r="C253">
-        <v>187.87577228861301</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C253" t="n">
+        <v>187.875772288613</v>
+      </c>
+    </row>
+    <row r="254">
       <c r="A254" t="s">
         <v>255</v>
       </c>
       <c r="B254" t="s">
         <v>74</v>
       </c>
-      <c r="C254">
-        <v>187.87577228861301</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C254" t="n">
+        <v>187.875772288613</v>
+      </c>
+    </row>
+    <row r="255">
       <c r="A255" t="s">
         <v>256</v>
       </c>
       <c r="B255" t="s">
         <v>74</v>
       </c>
-      <c r="C255">
+      <c r="C255" t="n">
         <v>183.7768696253998</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256">
       <c r="A256" t="s">
         <v>257</v>
       </c>
       <c r="B256" t="s">
         <v>74</v>
       </c>
-      <c r="C256">
+      <c r="C256" t="n">
         <v>183.7768696253998</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257">
       <c r="A257" t="s">
         <v>258</v>
       </c>
       <c r="B257" t="s">
         <v>20</v>
       </c>
-      <c r="C257">
-        <v>0.28549992991927919</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C257" t="n">
+        <v>0.2854999299192792</v>
+      </c>
+    </row>
+    <row r="258">
       <c r="A258" t="s">
         <v>259</v>
       </c>
       <c r="B258" t="s">
         <v>20</v>
       </c>
-      <c r="C258">
-        <v>0.28549992991927919</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C258" t="n">
+        <v>0.2854999299192792</v>
+      </c>
+    </row>
+    <row r="259">
       <c r="A259" t="s">
         <v>260</v>
       </c>
       <c r="B259" t="s">
         <v>20</v>
       </c>
-      <c r="C259">
-        <v>0.88722066861224469</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C259" t="n">
+        <v>0.8872206686122447</v>
+      </c>
+    </row>
+    <row r="260">
       <c r="A260" t="s">
         <v>261</v>
       </c>
       <c r="B260" t="s">
         <v>20</v>
       </c>
-      <c r="C260">
-        <v>0.87130194709844622</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C260" t="n">
+        <v>0.8713019470984462</v>
+      </c>
+    </row>
+    <row r="261">
       <c r="A261" t="s">
         <v>262</v>
       </c>
       <c r="B261" t="s">
         <v>20</v>
       </c>
-      <c r="C261">
-        <v>4.7880590534205868E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C261" t="n">
+        <v>0.04788059053420587</v>
+      </c>
+    </row>
+    <row r="262">
       <c r="A262" t="s">
         <v>263</v>
       </c>
       <c r="B262" t="s">
         <v>20</v>
       </c>
-      <c r="C262">
-        <v>4.7027731890353454E-2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C262" t="n">
+        <v>0.047027731890353454</v>
+      </c>
+    </row>
+    <row r="263">
       <c r="A263" t="s">
         <v>264</v>
       </c>
       <c r="B263" t="s">
         <v>20</v>
       </c>
-      <c r="C263">
+      <c r="C263" t="n">
         <v>18.529860611857213</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264">
       <c r="A264" t="s">
         <v>265</v>
       </c>
       <c r="B264" t="s">
         <v>20</v>
       </c>
-      <c r="C264">
+      <c r="C264" t="n">
         <v>18.527407384432497</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265">
       <c r="A265" t="s">
         <v>266</v>
       </c>
       <c r="B265" t="s">
         <v>87</v>
       </c>
-      <c r="C265">
+      <c r="C265" t="n">
         <v>5810.4137888688265</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266">
       <c r="A266" t="s">
         <v>267</v>
       </c>
       <c r="B266" t="s">
         <v>87</v>
       </c>
-      <c r="C266">
-        <v>5706.9175376967378</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C266" t="n">
+        <v>5706.917537696738</v>
+      </c>
+    </row>
+    <row r="267">
       <c r="A267" t="s">
         <v>268</v>
       </c>
       <c r="B267" t="s">
         <v>87</v>
       </c>
-      <c r="C267">
+      <c r="C267" t="n">
         <v>5810.4137888688265</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268">
       <c r="A268" t="s">
         <v>269</v>
       </c>
       <c r="B268" t="s">
         <v>87</v>
       </c>
-      <c r="C268">
-        <v>5706.9175376967378</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C268" t="n">
+        <v>5706.917537696738</v>
+      </c>
+    </row>
+    <row r="269">
       <c r="A269" t="s">
         <v>270</v>
       </c>
       <c r="B269" t="s">
         <v>92</v>
       </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C269" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="270">
       <c r="A270" t="s">
         <v>271</v>
       </c>
       <c r="B270" t="s">
         <v>92</v>
       </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C270" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="271">
       <c r="A271" t="s">
         <v>272</v>
       </c>
       <c r="B271" t="s">
         <v>95</v>
       </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C271" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="272">
       <c r="A272" t="s">
         <v>273</v>
       </c>
       <c r="B272" t="s">
         <v>95</v>
       </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C272" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="273">
       <c r="A273" t="s">
         <v>274</v>
       </c>
       <c r="B273" t="s">
         <v>98</v>
       </c>
-      <c r="C273">
-        <v>2582.0880742430859</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C273" t="n">
+        <v>2582.088074243086</v>
+      </c>
+    </row>
+    <row r="274">
       <c r="A274" t="s">
         <v>275</v>
       </c>
       <c r="B274" t="s">
         <v>98</v>
       </c>
-      <c r="C274">
+      <c r="C274" t="n">
         <v>2536.0954056327596</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275">
       <c r="A275" t="s">
         <v>276</v>
       </c>
       <c r="B275" t="s">
         <v>101</v>
       </c>
-      <c r="C275">
+      <c r="C275" t="n">
         <v>0.44438970580540493</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276">
       <c r="A276" t="s">
         <v>277</v>
       </c>
       <c r="B276" t="s">
         <v>101</v>
       </c>
-      <c r="C276">
-        <v>0.44438970580540499</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C276" t="n">
+        <v>0.444389705805405</v>
+      </c>
+    </row>
+    <row r="277">
       <c r="A277" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278">
       <c r="A278" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279">
       <c r="A279" t="s">
         <v>279</v>
       </c>
       <c r="B279" t="s">
         <v>74</v>
       </c>
-      <c r="C279">
+      <c r="C279" t="n">
         <v>224.90679627393837</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280">
       <c r="A280" t="s">
         <v>280</v>
       </c>
       <c r="B280" t="s">
         <v>74</v>
       </c>
-      <c r="C280">
+      <c r="C280" t="n">
         <v>221.33361546517457</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281">
       <c r="A281" t="s">
         <v>281</v>
       </c>
       <c r="B281" t="s">
         <v>74</v>
       </c>
-      <c r="C281">
+      <c r="C281" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282">
       <c r="A282" t="s">
         <v>282</v>
       </c>
       <c r="B282" t="s">
         <v>74</v>
       </c>
-      <c r="C282">
+      <c r="C282" t="n">
         <v>219.99999999999994</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283">
       <c r="A283" t="s">
         <v>283</v>
       </c>
       <c r="B283" t="s">
         <v>20</v>
       </c>
-      <c r="C283">
+      <c r="C283" t="n">
         <v>0.3417730439236138</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284">
       <c r="A284" t="s">
         <v>284</v>
       </c>
       <c r="B284" t="s">
         <v>20</v>
       </c>
-      <c r="C284">
-        <v>0.33466190687348563</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C284" t="n">
+        <v>0.3346619068734856</v>
+      </c>
+    </row>
+    <row r="285">
       <c r="A285" t="s">
         <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>20</v>
       </c>
-      <c r="C285">
-        <v>0.61041345254462676</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C285" t="n">
+        <v>0.6104134525446268</v>
+      </c>
+    </row>
+    <row r="286">
       <c r="A286" t="s">
         <v>286</v>
       </c>
       <c r="B286" t="s">
         <v>20</v>
       </c>
-      <c r="C286">
-        <v>0.61018023813191991</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C286" t="n">
+        <v>0.6101802381319199</v>
+      </c>
+    </row>
+    <row r="287">
       <c r="A287" t="s">
         <v>287</v>
       </c>
       <c r="B287" t="s">
         <v>20</v>
       </c>
-      <c r="C287">
-        <v>3.4707168005275117E-2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C287" t="n">
+        <v>0.03470716800527512</v>
+      </c>
+    </row>
+    <row r="288">
       <c r="A288" t="s">
         <v>288</v>
       </c>
       <c r="B288" t="s">
         <v>20</v>
       </c>
-      <c r="C288">
-        <v>3.4697607912079653E-2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C288" t="n">
+        <v>0.03469760791207965</v>
+      </c>
+    </row>
+    <row r="289">
       <c r="A289" t="s">
         <v>289</v>
       </c>
       <c r="B289" t="s">
         <v>20</v>
       </c>
-      <c r="C289">
+      <c r="C289" t="n">
         <v>17.587532709434846</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290">
       <c r="A290" t="s">
         <v>290</v>
       </c>
       <c r="B290" t="s">
         <v>20</v>
       </c>
-      <c r="C290">
+      <c r="C290" t="n">
         <v>17.585657192220772</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291">
       <c r="A291" t="s">
         <v>291</v>
       </c>
       <c r="B291" t="s">
         <v>87</v>
       </c>
-      <c r="C291">
-        <v>-2923.3407189416862</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C291" t="n">
+        <v>-2923.340718941686</v>
+      </c>
+    </row>
+    <row r="292">
       <c r="A292" t="s">
         <v>292</v>
       </c>
       <c r="B292" t="s">
         <v>87</v>
       </c>
-      <c r="C292">
+      <c r="C292" t="n">
         <v>-1418.3242467193495</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293">
       <c r="A293" t="s">
         <v>293</v>
       </c>
       <c r="B293" t="s">
         <v>87</v>
       </c>
-      <c r="C293">
-        <v>6035.7374846255179</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C293" t="n">
+        <v>6035.737484625518</v>
+      </c>
+    </row>
+    <row r="294">
       <c r="A294" t="s">
         <v>294</v>
       </c>
       <c r="B294" t="s">
         <v>87</v>
       </c>
-      <c r="C294">
-        <v>6034.0749400800323</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C294" t="n">
+        <v>6034.074940080032</v>
+      </c>
+    </row>
+    <row r="295">
       <c r="A295" t="s">
         <v>295</v>
       </c>
       <c r="B295" t="s">
         <v>92</v>
       </c>
-      <c r="C295">
+      <c r="C295" t="n">
         <v>-1918.0570301499988</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296">
       <c r="A296" t="s">
         <v>296</v>
       </c>
       <c r="B296" t="s">
         <v>92</v>
       </c>
-      <c r="C296">
+      <c r="C296" t="n">
         <v>-1570.6313580010622</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297">
       <c r="A297" t="s">
         <v>297</v>
       </c>
       <c r="B297" t="s">
         <v>95</v>
       </c>
-      <c r="C297">
+      <c r="C297" t="n">
         <v>3.7761652707280415</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298">
       <c r="A298" t="s">
         <v>298</v>
       </c>
       <c r="B298" t="s">
         <v>95</v>
       </c>
-      <c r="C298">
-        <v>3.8372177649496031</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="n">
+        <v>3.837217764949603</v>
+      </c>
+    </row>
+    <row r="299">
       <c r="A299" t="s">
         <v>299</v>
       </c>
       <c r="B299" t="s">
         <v>98</v>
       </c>
-      <c r="C299">
+      <c r="C299" t="n">
         <v>1360.4223244787772</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300">
       <c r="A300" t="s">
         <v>300</v>
       </c>
       <c r="B300" t="s">
         <v>98</v>
       </c>
-      <c r="C300">
+      <c r="C300" t="n">
         <v>1747.9153451702834</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301">
       <c r="A301" t="s">
         <v>301</v>
       </c>
       <c r="B301" t="s">
         <v>101</v>
       </c>
-      <c r="C301">
+      <c r="C301" t="n">
         <v>-0.46536563995567376</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302">
       <c r="A302" t="s">
         <v>302</v>
       </c>
       <c r="B302" t="s">
         <v>101</v>
       </c>
-      <c r="C302">
+      <c r="C302" t="n">
         <v>-1.2323806416010257</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303">
       <c r="A303" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304">
       <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305">
       <c r="A305" t="s">
         <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>74</v>
       </c>
-      <c r="C305">
+      <c r="C305" t="n">
         <v>114.76884617568851</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306">
       <c r="A306" t="s">
         <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>74</v>
       </c>
-      <c r="C306">
+      <c r="C306" t="n">
         <v>-3.1854475213886795E-8</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307">
       <c r="A307" t="s">
         <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>74</v>
       </c>
-      <c r="C307">
+      <c r="C307" t="n">
         <v>114.6849062876673</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308">
       <c r="A308" t="s">
         <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>74</v>
       </c>
-      <c r="C308">
-        <v>-3.1831177418609369E-8</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C308" t="n">
+        <v>-3.183117741860937E-8</v>
+      </c>
+    </row>
+    <row r="309">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>20</v>
       </c>
-      <c r="C309">
+      <c r="C309" t="n">
         <v>0.17353333713047778</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310">
       <c r="A310" t="s">
         <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>20</v>
       </c>
-      <c r="C310">
-        <v>-4.8156475535962733E-11</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C310" t="n">
+        <v>-4.815647553596273E-11</v>
+      </c>
+    </row>
+    <row r="311">
       <c r="A311" t="s">
         <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>20</v>
       </c>
-      <c r="C311">
+      <c r="C311" t="n">
         <v>2.2506305576848344</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312">
       <c r="A312" t="s">
         <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>20</v>
       </c>
-      <c r="C312">
-        <v>2.0085999999999999</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C312" t="n">
+        <v>2.0086</v>
+      </c>
+    </row>
+    <row r="313">
       <c r="A313" t="s">
         <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>20</v>
       </c>
-      <c r="C313">
+      <c r="C313" t="n">
         <v>0.20109903971595142</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314">
       <c r="A314" t="s">
         <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>20</v>
       </c>
-      <c r="C314">
+      <c r="C314" t="n">
         <v>0.19208895326655737</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315">
       <c r="A315" t="s">
         <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>20</v>
       </c>
-      <c r="C315">
+      <c r="C315" t="n">
         <v>11.191652435853536</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316">
       <c r="A316" t="s">
         <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>20</v>
       </c>
-      <c r="C316">
+      <c r="C316" t="n">
         <v>10.456613802318515</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317">
       <c r="A317" t="s">
         <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>87</v>
       </c>
-      <c r="C317">
+      <c r="C317" t="n">
         <v>-5569.0313078808795</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318">
       <c r="A318" t="s">
         <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>87</v>
       </c>
-      <c r="C318">
-        <v>700.04108072079953</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C318" t="n">
+        <v>700.0410807207995</v>
+      </c>
+    </row>
+    <row r="319">
       <c r="A319" t="s">
         <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>87</v>
       </c>
-      <c r="C319">
-        <v>9503.6052587216254</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C319" t="n">
+        <v>9503.605258721625</v>
+      </c>
+    </row>
+    <row r="320">
       <c r="A320" t="s">
         <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>87</v>
       </c>
-      <c r="C320">
-        <v>6.8859631122636973E-16</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C320" t="n">
+        <v>6.885963112263697E-16</v>
+      </c>
+    </row>
+    <row r="321">
       <c r="A321" t="s">
         <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>92</v>
       </c>
-      <c r="C321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C321" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="322">
       <c r="A322" t="s">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>92</v>
       </c>
-      <c r="C322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C322" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="323">
       <c r="A323" t="s">
         <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>95</v>
       </c>
-      <c r="C323">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C323" t="n">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="324">
       <c r="A324" t="s">
         <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>95</v>
       </c>
-      <c r="C324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C324" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="325">
       <c r="A325" t="s">
         <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>98</v>
       </c>
-      <c r="C325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="326">
       <c r="A326" t="s">
         <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>98</v>
       </c>
-      <c r="C326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C326" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="327">
       <c r="A327" t="s">
         <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>101</v>
       </c>
-      <c r="C327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C327" t="n">
+        <v>-0.0</v>
+      </c>
+    </row>
+    <row r="328">
       <c r="A328" t="s">
         <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>101</v>
       </c>
-      <c r="C328">
-        <v>0</v>
+      <c r="C328" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>